--- a/biology/Histoire de la zoologie et de la botanique/Maurice_Fontaine_(biologiste)/Maurice_Fontaine_(biologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maurice_Fontaine_(biologiste)/Maurice_Fontaine_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Alfred Fontaine (né le 28 octobre 1904 à Savigny-sur-Orge, en Essonne et mort le 14 juillet 2009 dans le 13e arrondissement de Paris) est un éminent biologiste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Alfred Fontaine (né le 28 octobre 1904 à Savigny-sur-Orge, en Essonne et mort le 14 juillet 2009 dans le 13e arrondissement de Paris) est un éminent biologiste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’Émile Fontaine, instituteur, et de son épouse Léa Vadier, il fait ses études au lycée Henri-IV puis à la faculté de sciences et de pharmacie de Paris, avant de passer son doctorat ès sciences biologiques en 1930. L’année suivante, il est préparateur, puis assistant (1932) à la Sorbonne. En 1935 il est chargé de recherches à la Caisse nationale des sciences. Démobilisé à la défaite de 1940 en tant que pharmacien, il devient en 1941 chef de travaux à la Sorbonne, chargé du cours de physiologie comparée à la Faculté des sciences de Paris et maître de conférences à la Faculté de pharmacie de Paris. Il se spécialise dans l’étude des hormones et des influx nerveux chez les poissons, ce qui le rapproche de l’océanographie dont il fait son champ d'études. Il est parmi les premiers à préconiser, pour « éviter de vider l’océan de ses ressources halieutiques », le passage de la pêche à l’aquaculture, « équivalent du passage, à terre, de la chasse et de la cueillette à l’agriculture, il y a déjà des millénaires ».
 En 1943, il devient professeur au Muséum national d'histoire naturelle, établissement dont il sera le directeur de 1966 à 1970.
@@ -548,7 +562,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Fontaine s'est marié le 2 août 1928 avec Yvonne Broca (1904-1996), professeur de lettres classiques.
 Leur fils Yves-Alain Fontaine, né le 6 octobre 1931 à Paris, a pris la succession paternelle en 1976 comme professeur titulaire de la Chaire de Physiologie générale et comparée au Muséum. Yves-Alain Fontaine, devenu professeur honoraire au Muséum, a publié deux ouvrages : L'Évolution sentimentale (1996)  et Les Anguilles et les Hommes : Les incertitudes de l'adaptation (2001).
@@ -581,7 +597,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur</t>
         </is>
@@ -611,12 +629,14 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les travaux scientifiques de Maurice Fontaine ont été consacrés à la physiologie comparée, l’éco-physiologie, l’océanographie biologique.
 Il poursuit des recherches sur la biologie de certaines espèces aquatiques (la lamproie marine, l'anguille, le saumon en particulier).
 Les Cyclostomes et les Poissons constituèrent pour Maurice Fontaine un domaine d'exploration privilégié, lui permettant d'aborder de grandes questions de physiologie fondamentale : le milieu intérieur, les régulations osmotique et thermique, l'endocrinologie, l'hibernation, le déterminisme du comportement migratoire.
-Maurice Fontaine a créé le terme de « molysmologie marine » pour désigner une science nouvelle : l’étude des pollutions marines liées aux activités humaines. À partir de là, en réponse aux scientifiques américains (notamment Andrew Rewkin) qui avaient proposé d'appeler la période géologique actuelle « Anthropocène » ("âge de l'Homme", terme qu'il jugeait excessivement narcissique), Maurice Fontaine proposa d'appeler l'ère commencée en 1957 (débuts de la conquête spatiale) « Cosmozoïque » ("vie dans l'Espace", moins pour Laïka ou les cosmonautes, que pour les micro-organismes extrémophiles involontairement exportés avec nos engins spatiaux) et la période actuelle « Molysmocène » ("âge de la pollution", parce que les paléontologues du futur, s'il y en a, découvriront peu de restes humains fossilisés, mais énormément de déchets)[2].
+Maurice Fontaine a créé le terme de « molysmologie marine » pour désigner une science nouvelle : l’étude des pollutions marines liées aux activités humaines. À partir de là, en réponse aux scientifiques américains (notamment Andrew Rewkin) qui avaient proposé d'appeler la période géologique actuelle « Anthropocène » ("âge de l'Homme", terme qu'il jugeait excessivement narcissique), Maurice Fontaine proposa d'appeler l'ère commencée en 1957 (débuts de la conquête spatiale) « Cosmozoïque » ("vie dans l'Espace", moins pour Laïka ou les cosmonautes, que pour les micro-organismes extrémophiles involontairement exportés avec nos engins spatiaux) et la période actuelle « Molysmocène » ("âge de la pollution", parce que les paléontologues du futur, s'il y en a, découvriront peu de restes humains fossilisés, mais énormément de déchets).
 </t>
         </is>
       </c>
@@ -645,7 +665,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il publia deux principaux ouvrages, La vitamine B2 en 1943, et Physiologie dans l'Encyclopédie de la Pléiade en 1969.
 Dans les années 1970, il assura la direction de l'édition française de l'encyclopédie zoologique de Bernhard Grzimek, Le Monde animal en 13 volumes.
